--- a/data/trans_bre/P21D_3_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P21D_3_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.41817219690914</v>
+        <v>-1.506449735630401</v>
       </c>
       <c r="D5" s="6" t="inlineStr"/>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.1488204915043586</v>
+        <v>0.1488204915043585</v>
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9872884554700128</v>
+        <v>0.7411089628773515</v>
       </c>
       <c r="D9" s="6" t="inlineStr"/>
     </row>
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.2575111347581026</v>
+        <v>0.2575111347581027</v>
       </c>
       <c r="D13" s="6" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.016899715927405</v>
+        <v>0.8871188013475019</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
     </row>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.09503711883541709</v>
+        <v>-0.06210066066017585</v>
       </c>
       <c r="D17" s="6" t="inlineStr"/>
     </row>
@@ -744,7 +744,7 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2429530848994778</v>
+        <v>0.2448709738531873</v>
       </c>
       <c r="D18" s="6" t="inlineStr"/>
     </row>
